--- a/data/long_razon/P37-Urba-long_razon.xlsx
+++ b/data/long_razon/P37-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 79,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 41,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 56,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 26,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,31; 55,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 25,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 57,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 87,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 50,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 34,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 39,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 43,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-59,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-27,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 76,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-75,38; -31,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 100,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 93,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 66,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,29; 0,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 48,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 25,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 44,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 25,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,96; 38,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 19,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P37-Urba-long_razon.xlsx
+++ b/data/long_razon/P37-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +787,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1212,14 +913,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P37-Urba-long_razon.xlsx
+++ b/data/long_razon/P37-Urba-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.4016215473500191</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1410880182648356</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.03677669429266519</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1578906873254447</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.2579512927913245</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.0576673890396689</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.04381023244155344</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.2176889544773077</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.3248522287418117</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.09546494417068697</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.04065312972824034</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.1893299185320498</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>0.02314353926737294</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1134100715568508</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3045048465114157</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1169117456441942</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.02572465887838779</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.1212208658773695</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2745558816012713</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.05936179159242583</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.1133556380855828</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.05142310934330545</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.2158545102034323</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.001505819391181487</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.8058920511360402</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.4576602672088685</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.2716324298633835</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.5688326065122598</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.5698831239128002</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.2893811128772432</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.1987877382965813</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.5600435926362545</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.5801544443140543</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.265978285875178</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.1579159848203378</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.4175981878078374</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.07573961327552678</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4142911709170436</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.0268632330412681</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.4479667350966215</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1758041019965793</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.08271221844320419</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.41435915124491</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.01532617141541975</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.1242249122062281</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.2259587315874076</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.1715553070159385</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.2664042979204251</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.2011963291724054</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.06095948006972678</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2906816156049103</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7261674790134517</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.09444802353925846</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1143098215288419</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.1028001472990648</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3859450606445389</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.08265532479450581</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.04355225023914054</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.04817047122508404</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.5078479007041469</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.5431196256822221</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.8823583523972971</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.349349652333892</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-0.1286321034401994</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5126884203369086</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.3109400190988974</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.8198148339694452</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.5245334885508539</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.3949821623058862</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.4581344238193261</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.4485449572481614</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.0394045108919629</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,17 +931,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.0394944554367274</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.5975025747507554</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.103799142123651</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>0.2710552962936225</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.2889783727316914</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.1282811081685821</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>0.1449685505426298</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.2632947955526341</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.492247043521923</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +969,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.4040702251710828</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.76887691849588</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2706943138650205</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.1785595890171764</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.1527676414050539</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.4802976201127071</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.2000784824206194</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.4684602510022999</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.07966656729994753</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +1007,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.7165647334429074</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.3296219510622435</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.684313713363198</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>1.037053581896421</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.8673075997056646</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.397910821259135</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.6028665930506508</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>-0.005729352724479952</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.519809986936097</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,18 +1049,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.2125026256977368</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.0850092722523076</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.09675121168503947</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.0353138602028296</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2277714432837655</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.09264726027667378</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.09453691379844865</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.163174757441189</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.2201950621206736</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.08904865118697529</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.0955788564985947</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.06321503025402035</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1093,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.01835009156820099</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1001373270323065</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.132228529631563</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2570764241919742</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.0487092992792256</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.04522647389101907</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.07602925146146131</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.07796160397467532</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.08314752790892328</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.01980612435340189</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.03821267641744329</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.1070307516593548</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1137,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.4632231617065793</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3086347338205791</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3976000738565436</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2619570695198639</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.4290397521389165</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.2352598097119114</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.3071216754268799</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.425807427464132</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.3830735244795262</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.2209824410642126</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.2533614145024519</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.2728992535935403</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
